--- a/InterfaceAuto/data/weather.xlsx
+++ b/InterfaceAuto/data/weather.xlsx
@@ -79,7 +79,7 @@
     <t>https://free-api.heweather.com/s6/weather/forecast</t>
   </si>
   <si>
-    <t>{'HeWeather6': [{'basic': {'cid': 'CN101010100', 'location': '北京', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.90498734', 'lon': '116.4052887', 'tz': '+8.00'}, 'update': {'loc': '2018-11-21 10:46', 'utc': '2018-11-21 02:46'}, 'status': 'ok', 'daily_forecast': [{'cond_code_d': '100', 'cond_code_n': '100', 'cond_txt_d': '晴', 'cond_txt_n': '晴', 'date': '2018-11-21', 'hum': '27', 'mr': '16:02', 'ms': '04:26', 'pcpn': '0.0', 'pop': '0', 'pres': '1030', 'sr': '07:07', 'ss': '16:53', 'tmp_max': '9', 'tmp_min': '-3', 'uv_index': '5', 'vis': '20', 'wind_deg': '4', 'wind_dir': '北风', 'wind_sc': '1-2', 'wind_spd': '1'}, {'cond_code_d': '100', 'cond_code_n': '101', 'cond_txt_d': '晴', 'cond_txt_n': '多云', 'date': '2018-11-22', 'hum': '16', 'mr': '16:35', 'ms': '05:32', 'pcpn': '0.0', 'pop': '0', 'pres': '1030', 'sr': '07:08', 'ss': '16:52', 'tmp_max': '8', 'tmp_min': '-3', 'uv_index': '3', 'vis': '20', 'wind_deg': '181', 'wind_dir': '南风', 'wind_sc': '1-2', 'wind_spd': '9'}, {'cond_code_d': '101', 'cond_code_n': '100', 'cond_txt_d': '多云', 'cond_txt_n': '晴', 'date': '2018-11-23', 'hum': '20', 'mr': '17:15', 'ms': '06:40', 'pcpn': '0.0', 'pop': '19', 'pres': '1026', 'sr': '07:09', 'ss': '16:52', 'tmp_max': '7', 'tmp_min': '0', 'uv_index': '0', 'vis': '20', 'wind_deg': '304', 'wind_dir': '西北风', 'wind_sc': '1-2', 'wind_spd': '3'}]}]}</t>
+    <t>{'HeWeather6': [{'basic': {'cid': 'CN101010100', 'location': '北京', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.90498734', 'lon': '116.4052887', 'tz': '+8.00'}, 'update': {'loc': '2018-11-23 10:45', 'utc': '2018-11-23 02:45'}, 'status': 'ok', 'daily_forecast': [{'cond_code_d': '101', 'cond_code_n': '101', 'cond_txt_d': '多云', 'cond_txt_n': '多云', 'date': '2018-11-23', 'hum': '24', 'mr': '17:15', 'ms': '06:40', 'pcpn': '0.0', 'pop': '19', 'pres': '1023', 'sr': '07:09', 'ss': '16:52', 'tmp_max': '7', 'tmp_min': '0', 'uv_index': '2', 'vis': '20', 'wind_deg': '51', 'wind_dir': '东北风', 'wind_sc': '1-2', 'wind_spd': '7'}, {'cond_code_d': '100', 'cond_code_n': '100', 'cond_txt_d': '晴', 'cond_txt_n': '晴', 'date': '2018-11-24', 'hum': '25', 'mr': '18:00', 'ms': '07:49', 'pcpn': '0.0', 'pop': '0', 'pres': '1027', 'sr': '07:10', 'ss': '16:52', 'tmp_max': '9', 'tmp_min': '-3', 'uv_index': '6', 'vis': '20', 'wind_deg': '257', 'wind_dir': '西南风', 'wind_sc': '1-2', 'wind_spd': '1'}, {'cond_code_d': '100', 'cond_code_n': '101', 'cond_txt_d': '晴', 'cond_txt_n': '多云', 'date': '2018-11-25', 'hum': '23', 'mr': '18:52', 'ms': '08:56', 'pcpn': '0.0', 'pop': '0', 'pres': '1024', 'sr': '07:11', 'ss': '16:51', 'tmp_max': '10', 'tmp_min': '-3', 'uv_index': '5', 'vis': '20', 'wind_deg': '243', 'wind_dir': '西南风', 'wind_sc': '1-2', 'wind_spd': '6'}]}]}</t>
   </si>
   <si>
     <t>True</t>
@@ -95,7 +95,7 @@
     <t>HeWeather6.basic.location[list_dict]东城</t>
   </si>
   <si>
-    <t>{'HeWeather6': [{'basic': {'cid': 'CN101011600', 'location': '东城', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.91754532', 'lon': '116.41875458', 'tz': '+8.00'}, 'update': {'loc': '2018-11-21 10:46', 'utc': '2018-11-21 02:46'}, 'status': 'ok', 'daily_forecast': [{'cond_code_d': '100', 'cond_code_n': '100', 'cond_txt_d': '晴', 'cond_txt_n': '晴', 'date': '2018-11-21', 'hum': '27', 'mr': '16:02', 'ms': '04:26', 'pcpn': '0.0', 'pop': '0', 'pres': '1030', 'sr': '07:07', 'ss': '16:53', 'tmp_max': '9', 'tmp_min': '-3', 'uv_index': '6', 'vis': '20', 'wind_deg': '222', 'wind_dir': '西南风', 'wind_sc': '1-2', 'wind_spd': '10'}, {'cond_code_d': '100', 'cond_code_n': '101', 'cond_txt_d': '晴', 'cond_txt_n': '多云', 'date': '2018-11-22', 'hum': '16', 'mr': '16:35', 'ms': '05:32', 'pcpn': '0.0', 'pop': '0', 'pres': '1030', 'sr': '07:08', 'ss': '16:52', 'tmp_max': '8', 'tmp_min': '-3', 'uv_index': '4', 'vis': '20', 'wind_deg': '358', 'wind_dir': '北风', 'wind_sc': '1-2', 'wind_spd': '1'}, {'cond_code_d': '101', 'cond_code_n': '100', 'cond_txt_d': '多云', 'cond_txt_n': '晴', 'date': '2018-11-23', 'hum': '20', 'mr': '17:15', 'ms': '06:40', 'pcpn': '0.0', 'pop': '19', 'pres': '1026', 'sr': '07:09', 'ss': '16:52', 'tmp_max': '7', 'tmp_min': '0', 'uv_index': '1', 'vis': '20', 'wind_deg': '339', 'wind_dir': '西北风', 'wind_sc': '1-2', 'wind_spd': '6'}]}]}</t>
+    <t>{'HeWeather6': [{'basic': {'cid': 'CN101011600', 'location': '东城', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.91754532', 'lon': '116.41875458', 'tz': '+8.00'}, 'update': {'loc': '2018-11-23 10:45', 'utc': '2018-11-23 02:45'}, 'status': 'ok', 'daily_forecast': [{'cond_code_d': '101', 'cond_code_n': '101', 'cond_txt_d': '多云', 'cond_txt_n': '多云', 'date': '2018-11-23', 'hum': '24', 'mr': '17:15', 'ms': '06:40', 'pcpn': '0.0', 'pop': '19', 'pres': '1023', 'sr': '07:09', 'ss': '16:52', 'tmp_max': '7', 'tmp_min': '0', 'uv_index': '1', 'vis': '20', 'wind_deg': '316', 'wind_dir': '西北风', 'wind_sc': '1-2', 'wind_spd': '9'}, {'cond_code_d': '100', 'cond_code_n': '100', 'cond_txt_d': '晴', 'cond_txt_n': '晴', 'date': '2018-11-24', 'hum': '25', 'mr': '18:00', 'ms': '07:49', 'pcpn': '0.0', 'pop': '0', 'pres': '1027', 'sr': '07:10', 'ss': '16:51', 'tmp_max': '9', 'tmp_min': '-3', 'uv_index': '5', 'vis': '20', 'wind_deg': '216', 'wind_dir': '西南风', 'wind_sc': '1-2', 'wind_spd': '10'}, {'cond_code_d': '100', 'cond_code_n': '101', 'cond_txt_d': '晴', 'cond_txt_n': '多云', 'date': '2018-11-25', 'hum': '23', 'mr': '18:52', 'ms': '08:56', 'pcpn': '0.0', 'pop': '0', 'pres': '1024', 'sr': '07:11', 'ss': '16:51', 'tmp_max': '10', 'tmp_min': '-3', 'uv_index': '6', 'vis': '20', 'wind_deg': '237', 'wind_dir': '西南风', 'wind_sc': '1-2', 'wind_spd': '2'}]}]}</t>
   </si>
   <si>
     <t>lifestyle</t>
@@ -115,7 +115,7 @@
     <t>https://free-api.heweather.com/s6/weather/lifestyle</t>
   </si>
   <si>
-    <t>{'HeWeather6': [{'basic': {'cid': 'CN101011600', 'location': '东城', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.91754532', 'lon': '116.41875458', 'tz': '+8.00'}, 'update': {'loc': '2018-11-21 10:46', 'utc': '2018-11-21 02:46'}, 'status': 'ok', 'lifestyle': [{'type': 'comf', 'brf': '较舒适', 'txt': '白天虽然天气晴好，但早晚会感觉偏凉，午后舒适、宜人。'}, {'type': 'drsg', 'brf': '较冷', 'txt': '建议着厚外套加毛衣等服装。年老体弱者宜着大衣、呢外套加羊毛衫。'}, {'type': 'flu', 'brf': '较易发', 'txt': '昼夜温差较大，较易发生感冒，请适当增减衣服。体质较弱的朋友请注意防护。'}, {'type': 'sport', 'brf': '较适宜', 'txt': '天气较好，无雨水困扰，较适宜进行各种运动，但因气温较低，在户外运动请注意增减衣物。'}, {'type': 'trav', 'brf': '适宜', 'txt': '天气较好，气温稍低，会感觉稍微有点凉，不过也是个好天气哦。适宜旅游，可不要错过机会呦！'}, {'type': 'uv', 'brf': '中等', 'txt': '属中等强度紫外线辐射天气，外出时建议涂擦SPF高于15、PA+的防晒护肤品，戴帽子、太阳镜。'}, {'type': 'cw', 'brf': '较适宜', 'txt': '较适宜洗车，未来一天无雨，风力较小，擦洗一新的汽车至少能保持一天。'}, {'type': 'air', 'brf': '中', 'txt': '气象条件对空气污染物稀释、扩散和清除无明显影响，易感人群应适当减少室外活动时间。'}]}]}</t>
+    <t>{'HeWeather6': [{'basic': {'cid': 'CN101011600', 'location': '东城', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.91754532', 'lon': '116.41875458', 'tz': '+8.00'}, 'update': {'loc': '2018-11-23 10:45', 'utc': '2018-11-23 02:45'}, 'status': 'ok', 'lifestyle': [{'type': 'comf', 'brf': '较舒适', 'txt': '白天天气晴好，早晚会感觉偏凉，午后舒适、宜人。'}, {'type': 'drsg', 'brf': '较冷', 'txt': '建议着厚外套加毛衣等服装。年老体弱者宜着大衣、呢外套加羊毛衫。'}, {'type': 'flu', 'brf': '较易发', 'txt': '天气较凉，较易发生感冒，请适当增加衣服。体质较弱的朋友尤其应该注意防护。'}, {'type': 'sport', 'brf': '较适宜', 'txt': '天气较好，无雨水困扰，较适宜进行各种运动，但因气温较低，在户外运动请注意增减衣物。'}, {'type': 'trav', 'brf': '适宜', 'txt': '天气较好，同时又有微风伴您一路同行。虽会让人感觉有点凉，但仍适宜旅游，可不要错过机会呦！'}, {'type': 'uv', 'brf': '最弱', 'txt': '属弱紫外线辐射天气，无需特别防护。若长期在户外，建议涂擦SPF在8-12之间的防晒护肤品。'}, {'type': 'cw', 'brf': '较适宜', 'txt': '较适宜洗车，未来一天无雨，风力较小，擦洗一新的汽车至少能保持一天。'}, {'type': 'air', 'brf': '中', 'txt': '气象条件对空气污染物稀释、扩散和清除无明显影响，易感人群应适当减少室外活动时间。'}]}]}</t>
   </si>
   <si>
     <t>验证常规天气数据【北京】</t>
@@ -138,7 +138,7 @@
     <t>https://free-api.heweather.com/s6/weather/</t>
   </si>
   <si>
-    <t>{'HeWeather6': [{'basic': {'cid': 'CN101010100', 'location': '北京', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.90498734', 'lon': '116.4052887', 'tz': '+8.00'}, 'update': {'loc': '2018-11-21 10:46', 'utc': '2018-11-21 02:46'}, 'status': 'ok', 'now': {'cloud': '0', 'cond_code': '100', 'cond_txt': '晴', 'fl': '3', 'hum': '14', 'pcpn': '0.0', 'pres': '1030', 'tmp': '7', 'vis': '10', 'wind_deg': '348', 'wind_dir': '西北风', 'wind_sc': '3', 'wind_spd': '13'}, 'daily_forecast': [{'cond_code_d': '100', 'cond_code_n': '100', 'cond_txt_d': '晴', 'cond_txt_n': '晴', 'date': '2018-11-21', 'hum': '27', 'mr': '16:02', 'ms': '04:26', 'pcpn': '0.0', 'pop': '0', 'pres': '1030', 'sr': '07:07', 'ss': '16:53', 'tmp_max': '9', 'tmp_min': '-3', 'uv_index': '5', 'vis': '20', 'wind_deg': '4', 'wind_dir': '北风', 'wind_sc': '1-2', 'wind_spd': '1'}, {'cond_code_d': '100', 'cond_code_n': '101', 'cond_txt_d': '晴', 'cond_txt_n': '多云', 'date': '2018-11-22', 'hum': '16', 'mr': '16:35', 'ms': '05:32', 'pcpn': '0.0', 'pop': '0', 'pres': '1030', 'sr': '07:08', 'ss': '16:52', 'tmp_max': '8', 'tmp_min': '-3', 'uv_index': '3', 'vis': '20', 'wind_deg': '181', 'wind_dir': '南风', 'wind_sc': '1-2', 'wind_spd': '9'}, {'cond_code_d': '101', 'cond_code_n': '100', 'cond_txt_d': '多云', 'cond_txt_n': '晴', 'date': '2018-11-23', 'hum': '20', 'mr': '17:15', 'ms': '06:40', 'pcpn': '0.0', 'pop': '19', 'pres': '1026', 'sr': '07:09', 'ss': '16:52', 'tmp_max': '7', 'tmp_min': '0', 'uv_index': '0', 'vis': '20', 'wind_deg': '304', 'wind_dir': '西北风', 'wind_sc': '1-2', 'wind_spd': '3'}], 'lifestyle': [{'type': 'comf', 'brf': '较舒适', 'txt': '白天虽然天气晴好，但早晚会感觉偏凉，午后舒适、宜人。'}, {'type': 'drsg', 'brf': '较冷', 'txt': '建议着厚外套加毛衣等服装。年老体弱者宜着大衣、呢外套加羊毛衫。'}, {'type': 'flu', 'brf': '较易发', 'txt': '昼夜温差较大，较易发生感冒，请适当增减衣服。体质较弱的朋友请注意防护。'}, {'type': 'sport', 'brf': '较适宜', 'txt': '天气较好，无雨水困扰，较适宜进行各种运动，但因气温较低，在户外运动请注意增减衣物。'}, {'type': 'trav', 'brf': '适宜', 'txt': '天气较好，气温稍低，会感觉稍微有点凉，不过也是个好天气哦。适宜旅游，可不要错过机会呦！'}, {'type': 'uv', 'brf': '中等', 'txt': '属中等强度紫外线辐射天气，外出时建议涂擦SPF高于15、PA+的防晒护肤品，戴帽子、太阳镜。'}, {'type': 'cw', 'brf': '较适宜', 'txt': '较适宜洗车，未来一天无雨，风力较小，擦洗一新的汽车至少能保持一天。'}, {'type': 'air', 'brf': '中', 'txt': '气象条件对空气污染物稀释、扩散和清除无明显影响，易感人群应适当减少室外活动时间。'}]}]}</t>
+    <t>{'HeWeather6': [{'basic': {'cid': 'CN101010100', 'location': '北京', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.90498734', 'lon': '116.4052887', 'tz': '+8.00'}, 'update': {'loc': '2018-11-23 10:45', 'utc': '2018-11-23 02:45'}, 'status': 'ok', 'now': {'cloud': '0', 'cond_code': '100', 'cond_txt': '晴', 'fl': '0', 'hum': '39', 'pcpn': '0.0', 'pres': '1023', 'tmp': '3', 'vis': '13', 'wind_deg': '18', 'wind_dir': '东北风', 'wind_sc': '2', 'wind_spd': '6'}, 'daily_forecast': [{'cond_code_d': '101', 'cond_code_n': '101', 'cond_txt_d': '多云', 'cond_txt_n': '多云', 'date': '2018-11-23', 'hum': '24', 'mr': '17:15', 'ms': '06:40', 'pcpn': '0.0', 'pop': '19', 'pres': '1023', 'sr': '07:09', 'ss': '16:52', 'tmp_max': '7', 'tmp_min': '0', 'uv_index': '2', 'vis': '20', 'wind_deg': '51', 'wind_dir': '东北风', 'wind_sc': '1-2', 'wind_spd': '7'}, {'cond_code_d': '100', 'cond_code_n': '100', 'cond_txt_d': '晴', 'cond_txt_n': '晴', 'date': '2018-11-24', 'hum': '25', 'mr': '18:00', 'ms': '07:49', 'pcpn': '0.0', 'pop': '0', 'pres': '1027', 'sr': '07:10', 'ss': '16:52', 'tmp_max': '9', 'tmp_min': '-3', 'uv_index': '6', 'vis': '20', 'wind_deg': '257', 'wind_dir': '西南风', 'wind_sc': '1-2', 'wind_spd': '1'}, {'cond_code_d': '100', 'cond_code_n': '101', 'cond_txt_d': '晴', 'cond_txt_n': '多云', 'date': '2018-11-25', 'hum': '23', 'mr': '18:52', 'ms': '08:56', 'pcpn': '0.0', 'pop': '0', 'pres': '1024', 'sr': '07:11', 'ss': '16:51', 'tmp_max': '10', 'tmp_min': '-3', 'uv_index': '5', 'vis': '20', 'wind_deg': '243', 'wind_dir': '西南风', 'wind_sc': '1-2', 'wind_spd': '6'}], 'lifestyle': [{'type': 'comf', 'brf': '较舒适', 'txt': '白天天气晴好，早晚会感觉偏凉，午后舒适、宜人。'}, {'type': 'drsg', 'brf': '较冷', 'txt': '建议着厚外套加毛衣等服装。年老体弱者宜着大衣、呢外套加羊毛衫。'}, {'type': 'flu', 'brf': '较易发', 'txt': '天气较凉，较易发生感冒，请适当增加衣服。体质较弱的朋友尤其应该注意防护。'}, {'type': 'sport', 'brf': '较适宜', 'txt': '天气较好，无雨水困扰，较适宜进行各种运动，但因气温较低，在户外运动请注意增减衣物。'}, {'type': 'trav', 'brf': '适宜', 'txt': '天气较好，同时又有微风伴您一路同行。虽会让人感觉有点凉，但仍适宜旅游，可不要错过机会呦！'}, {'type': 'uv', 'brf': '最弱', 'txt': '属弱紫外线辐射天气，无需特别防护。若长期在户外，建议涂擦SPF在8-12之间的防晒护肤品。'}, {'type': 'cw', 'brf': '较适宜', 'txt': '较适宜洗车，未来一天无雨，风力较小，擦洗一新的汽车至少能保持一天。'}, {'type': 'air', 'brf': '中', 'txt': '气象条件对空气污染物稀释、扩散和清除无明显影响，易感人群应适当减少室外活动时间。'}]}]}</t>
   </si>
   <si>
     <t>now</t>
@@ -158,7 +158,7 @@
     <t>https://free-api.heweather.com/s6/weather/now</t>
   </si>
   <si>
-    <t>{'HeWeather6': [{'basic': {'cid': 'CN101010100', 'location': '北京', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.90498734', 'lon': '116.4052887', 'tz': '+8.00'}, 'update': {'loc': '2018-11-21 10:46', 'utc': '2018-11-21 02:46'}, 'status': 'ok', 'now': {'cloud': '0', 'cond_code': '100', 'cond_txt': '晴', 'fl': '3', 'hum': '14', 'pcpn': '0.0', 'pres': '1030', 'tmp': '7', 'vis': '10', 'wind_deg': '348', 'wind_dir': '西北风', 'wind_sc': '3', 'wind_spd': '13'}}]}</t>
+    <t>{'HeWeather6': [{'basic': {'cid': 'CN101010100', 'location': '北京', 'parent_city': '北京', 'admin_area': '北京', 'cnty': '中国', 'lat': '39.90498734', 'lon': '116.4052887', 'tz': '+8.00'}, 'update': {'loc': '2018-11-23 10:45', 'utc': '2018-11-23 02:45'}, 'status': 'ok', 'now': {'cloud': '0', 'cond_code': '100', 'cond_txt': '晴', 'fl': '0', 'hum': '39', 'pcpn': '0.0', 'pres': '1023', 'tmp': '3', 'vis': '13', 'wind_deg': '18', 'wind_dir': '东北风', 'wind_sc': '2', 'wind_spd': '6'}}]}</t>
   </si>
 </sst>
 </file>
